--- a/Inspection_Template.xlsx
+++ b/Inspection_Template.xlsx
@@ -10,7 +10,7 @@
     <sheet name="qms" sheetId="2" r:id="rId1"/>
     <sheet name="result" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -222,59 +222,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color theme="0"/>
@@ -682,7 +630,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,7 +725,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +790,7 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -865,22 +813,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2 E2">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"F : Failed Inspection"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3 E3">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"F : Failed Inspection"</formula>
     </cfRule>
   </conditionalFormatting>
